--- a/selfie party booth beverly hills.xlsx
+++ b/selfie party booth beverly hills.xlsx
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1068">
   <si>
     <t>target url</t>
   </si>
@@ -3194,6 +3194,159 @@
   </si>
   <si>
     <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/01/camera-booth.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/07/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/07/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/07/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/360-photo-booth-accessories.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/mirror-photo-booth-rental-near-me.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/headshots-for-remote-teams.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/photo-booth-services-near-me.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/roamer-photo-booth.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/seattle-photo-booth.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalslosangeles.blogspot.com/2025/10/camera-booth.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/360-photo-booth-accessories.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/mirror-photo-booth-rental-near-me.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/headshots-for-remote-teams.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/ring-light-photo-booth-rental.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/photobooth-los-angeles.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/photo-booth-rental-surrey.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/369-photo-booth-rental.html</t>
+  </si>
+  <si>
+    <t>http://360photoboothrentalinorangecounty.blogspot.com/2025/10/360-photo-booth-cost.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/360-photo-booth-accessories.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/mirror-photo-booth-rental-near-me.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/headshots-for-remote-teams.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/photo-machine-rental.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/photo-booth-enclosure.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/wedding-photo-booth-near-me.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/photo-booth-services-near-me.html</t>
+  </si>
+  <si>
+    <t>http://costamesa360photoboothrental.blogspot.com/2025/10/roamer-photo-booth.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/360-photo-booth-accessories.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/mirror-photo-booth-rental-near-me.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/headshots-for-remote-teams.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/photo-booth-enclosure.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/wedding-photo-booth-near-me.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/photo-booth-services-near-me.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/roamer-photo-booth.html</t>
+  </si>
+  <si>
+    <t>http://ddigitalorbit360orangecounty.blogspot.com/2025/10/seattle-photo-booth.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/selfie-party-booth-beverly-hills.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/360-photo-booth-accessories.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/mirror-photo-booth-rental-near-me.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/photo-booth-for-wedding-reception.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/headshots-for-remote-teams.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/ring-light-photo-booth-rental.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/photobooth-los-angeles.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/photo-booth-rental-surrey.html</t>
+  </si>
+  <si>
+    <t>http://photoboothrentalhuntingtonbeach.blogspot.com/2025/10/369-photo-booth-rental.html</t>
   </si>
   <si>
     <t>keyword</t>
@@ -15049,6 +15202,567 @@
       </c>
       <c r="C667" s="3" t="s">
         <v>977</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -15722,9 +16436,60 @@
     <hyperlink r:id="rId665" ref="C665"/>
     <hyperlink r:id="rId666" ref="C666"/>
     <hyperlink r:id="rId667" ref="C667"/>
+    <hyperlink r:id="rId668" ref="D668"/>
+    <hyperlink r:id="rId669" ref="D669"/>
+    <hyperlink r:id="rId670" ref="D670"/>
+    <hyperlink r:id="rId671" ref="D671"/>
+    <hyperlink r:id="rId672" ref="D672"/>
+    <hyperlink r:id="rId673" ref="D673"/>
+    <hyperlink r:id="rId674" ref="D674"/>
+    <hyperlink r:id="rId675" ref="D675"/>
+    <hyperlink r:id="rId676" ref="D676"/>
+    <hyperlink r:id="rId677" ref="D677"/>
+    <hyperlink r:id="rId678" ref="D678"/>
+    <hyperlink r:id="rId679" ref="D679"/>
+    <hyperlink r:id="rId680" ref="D680"/>
+    <hyperlink r:id="rId681" ref="D681"/>
+    <hyperlink r:id="rId682" ref="D682"/>
+    <hyperlink r:id="rId683" ref="D683"/>
+    <hyperlink r:id="rId684" ref="D684"/>
+    <hyperlink r:id="rId685" ref="D685"/>
+    <hyperlink r:id="rId686" ref="D686"/>
+    <hyperlink r:id="rId687" ref="D687"/>
+    <hyperlink r:id="rId688" ref="D688"/>
+    <hyperlink r:id="rId689" ref="D689"/>
+    <hyperlink r:id="rId690" ref="D690"/>
+    <hyperlink r:id="rId691" ref="D691"/>
+    <hyperlink r:id="rId692" ref="D692"/>
+    <hyperlink r:id="rId693" ref="D693"/>
+    <hyperlink r:id="rId694" ref="D694"/>
+    <hyperlink r:id="rId695" ref="D695"/>
+    <hyperlink r:id="rId696" ref="D696"/>
+    <hyperlink r:id="rId697" ref="D697"/>
+    <hyperlink r:id="rId698" ref="D698"/>
+    <hyperlink r:id="rId699" ref="D699"/>
+    <hyperlink r:id="rId700" ref="D700"/>
+    <hyperlink r:id="rId701" ref="D701"/>
+    <hyperlink r:id="rId702" ref="D702"/>
+    <hyperlink r:id="rId703" ref="D703"/>
+    <hyperlink r:id="rId704" ref="D704"/>
+    <hyperlink r:id="rId705" ref="D705"/>
+    <hyperlink r:id="rId706" ref="D706"/>
+    <hyperlink r:id="rId707" ref="D707"/>
+    <hyperlink r:id="rId708" ref="D708"/>
+    <hyperlink r:id="rId709" ref="D709"/>
+    <hyperlink r:id="rId710" ref="D710"/>
+    <hyperlink r:id="rId711" ref="D711"/>
+    <hyperlink r:id="rId712" ref="D712"/>
+    <hyperlink r:id="rId713" ref="D713"/>
+    <hyperlink r:id="rId714" ref="D714"/>
+    <hyperlink r:id="rId715" ref="D715"/>
+    <hyperlink r:id="rId716" ref="D716"/>
+    <hyperlink r:id="rId717" ref="D717"/>
+    <hyperlink r:id="rId718" ref="D718"/>
   </hyperlinks>
-  <drawing r:id="rId668"/>
-  <legacyDrawing r:id="rId669"/>
+  <drawing r:id="rId719"/>
+  <legacyDrawing r:id="rId720"/>
 </worksheet>
 </file>
 
@@ -15740,7 +16505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -15755,7 +16520,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>97</v>
@@ -15770,7 +16535,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>99</v>
@@ -15785,7 +16550,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>101</v>
@@ -15800,7 +16565,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>133</v>
@@ -15815,7 +16580,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>135</v>
@@ -15830,7 +16595,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>137</v>
@@ -15845,7 +16610,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>169</v>
@@ -15860,7 +16625,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>171</v>
@@ -15875,7 +16640,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>173</v>
@@ -15890,7 +16655,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>205</v>
@@ -15905,7 +16670,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>207</v>
@@ -15920,7 +16685,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>209</v>
@@ -15935,7 +16700,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>241</v>
@@ -15950,7 +16715,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>243</v>
@@ -15965,7 +16730,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>245</v>
@@ -15980,7 +16745,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>277</v>
@@ -15995,7 +16760,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>279</v>
@@ -16045,13 +16810,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2">
@@ -16062,39 +16827,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>982</v>
+        <v>1033</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>983</v>
+        <v>1034</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>984</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>986</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>987</v>
+        <v>1038</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>988</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="B6" s="2">
         <v>33.7786479006798</v>
@@ -16102,7 +16867,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>990</v>
+        <v>1041</v>
       </c>
       <c r="B7" s="2">
         <v>-117.9226957408</v>
@@ -16110,13 +16875,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9">
@@ -16127,10 +16892,10 @@
         <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>991</v>
+        <v>1042</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10">
@@ -16141,10 +16906,10 @@
         <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>992</v>
+        <v>1043</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11">
@@ -16155,21 +16920,21 @@
         <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>993</v>
+        <v>1044</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13">
@@ -16180,10 +16945,10 @@
         <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>994</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14">
@@ -16194,10 +16959,10 @@
         <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>995</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15">
@@ -16208,21 +16973,21 @@
         <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>996</v>
+        <v>1047</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17">
@@ -16233,10 +16998,10 @@
         <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>997</v>
+        <v>1048</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18">
@@ -16247,10 +17012,10 @@
         <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>998</v>
+        <v>1049</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19">
@@ -16261,21 +17026,21 @@
         <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="21">
@@ -16286,10 +17051,10 @@
         <v>205</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="22">
@@ -16300,10 +17065,10 @@
         <v>207</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1001</v>
+        <v>1052</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="23">
@@ -16314,21 +17079,21 @@
         <v>209</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1002</v>
+        <v>1053</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="25">
@@ -16339,10 +17104,10 @@
         <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1003</v>
+        <v>1054</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="26">
@@ -16353,10 +17118,10 @@
         <v>243</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1004</v>
+        <v>1055</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27">
@@ -16367,21 +17132,21 @@
         <v>245</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1005</v>
+        <v>1056</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="29">
@@ -16392,10 +17157,10 @@
         <v>277</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1006</v>
+        <v>1057</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="30">
@@ -16406,35 +17171,35 @@
         <v>279</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1007</v>
+        <v>1058</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>981</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>979</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -16454,7 +17219,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -16462,7 +17227,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>69</v>
@@ -16470,7 +17235,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>70</v>
@@ -16478,7 +17243,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>71</v>
@@ -16486,7 +17251,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>72</v>
@@ -16494,7 +17259,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>73</v>
@@ -16502,7 +17267,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>74</v>
@@ -16510,7 +17275,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>75</v>
@@ -16518,7 +17283,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>76</v>
@@ -16526,7 +17291,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>77</v>
@@ -16534,7 +17299,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>78</v>
@@ -16542,7 +17307,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>79</v>
@@ -16550,7 +17315,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>80</v>
@@ -16558,7 +17323,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>81</v>
@@ -16566,7 +17331,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>82</v>
@@ -16611,404 +17376,405 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items created"", false)"),"Mon, 26 Aug 2024 07:00:00 GMT")</f>
-        <v>Mon, 26 Aug 2024 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items created"", false)"),"Fri, 13 May 2022 07:00:00 GMT")</f>
+        <v>Fri, 13 May 2022 07:00:00 GMT</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items title"", false)"),"Meet Monse + Drew Escarcega | Owners of Rustic Charm Booth (Photo Booth Rentals) - SHOUTOUT LA")</f>
-        <v>Meet Monse + Drew Escarcega | Owners of Rustic Charm Booth (Photo Booth Rentals) - SHOUTOUT LA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items title"", false)"),"Meet the Vendor: D and M DJ Entertainment - Columbus Monthly")</f>
+        <v>Meet the Vendor: D and M DJ Entertainment - Columbus Monthly</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items url"", false)"),"https://news.google.com/rss/articles/CBMinwFBVV95cUxQdUU1Z2ZCYWF3d2hjanEyb3l0TTJOZVRZVUppRUktNmZxQkxsU2kyX1MwanFQeElGLTl0c0JMeTUxQi1NZFdGaVFIelpJSkNBb2JaX190c0dXdG96UjhHTzZxdEN0Z0NERzNta0FabndYcGxhQkZYWVdkOTU1NTkxTXp2dkdCRnpoVG9fWDVOMkRhQ2U1ajVWcmJqeG1lNV"&amp;"E?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMinwFBVV95cUxQdUU1Z2ZCYWF3d2hjanEyb3l0TTJOZVRZVUppRUktNmZxQkxsU2kyX1MwanFQeElGLTl0c0JMeTUxQi1NZFdGaVFIelpJSkNBb2JaX190c0dXdG96UjhHTzZxdEN0Z0NERzNta0FabndYcGxhQkZYWVdkOTU1NTkxTXp2dkdCRnpoVG9fWDVOMkRhQ2U1ajVWcmJqeG1lNVE?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items url"", false)"),"https://news.google.com/rss/articles/CBMi1AFBVV95cUxPNWt6UDRiSHlOMGs1eW1zb1Y5WE04d0Z5VVdueGpLMUs4RHlUMHJlbEJwZlRFOWM1TmVYTjZhX2ZQbDllZU1fTWMtQXFXODVHWk1tNlZKYjF0RE5EWUtFd3FaZzRCVTZObEVWSFkyVFJxNUhxNHZmUjVXRXo5OC16VzUtU1Nla2VjbGV2MFNYMzFzMmdtWTE4R2dHb0JEM2"&amp;"dBNmUwWkFzZHRTZEhlX1ZWcTd1bXFVQW4wXzZPd1dhbGdLMFRNUDRxU3VUNVhaUlFEcjFGcw?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPNWt6UDRiSHlOMGs1eW1zb1Y5WE04d0Z5VVdueGpLMUs4RHlUMHJlbEJwZlRFOWM1TmVYTjZhX2ZQbDllZU1fTWMtQXFXODVHWk1tNlZKYjF0RE5EWUtFd3FaZzRCVTZObEVWSFkyVFJxNUhxNHZmUjVXRXo5OC16VzUtU1Nla2VjbGV2MFNYMzFzMmdtWTE4R2dHb0JEM2dBNmUwWkFzZHRTZEhlX1ZWcTd1bXFVQW4wXzZPd1dhbGdLMFRNUDRxU3VUNVhaUlFEcjFGcw?oc=5</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items summary"", false)"),"Meet Monse + Drew Escarcega | Owners of Rustic Charm Booth (Photo Booth 
-Rentals)  SHOUTOUT LA")</f>
-        <v>Meet Monse + Drew Escarcega | Owners of Rustic Charm Booth (Photo Booth 
-Rentals)  SHOUTOUT LA</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTFEED(""https://news.google.com/rss/search?q=photoboothrentals"",""items summary"", false)"),"Meet the Vendor: D and M DJ Entertainment  Columbus Monthly")</f>
+        <v>Meet the Vendor: D and M DJ Entertainment  Columbus Monthly</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 21 Mar 2014 07:00:00 GMT")</f>
-        <v>Fri, 21 Mar 2014 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 08 Nov 2021 08:00:00 GMT")</f>
+        <v>Mon, 08 Nov 2021 08:00:00 GMT</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Back to the future as Two + Quarter Studios offers photo booth for rent - Royal Gazette")</f>
-        <v>Back to the future as Two + Quarter Studios offers photo booth for rent - Royal Gazette</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi1wFBVV95cUxQWW4tMTVHdjBQYm02RDJ5d1RMVUcyRXZoREdKQV9YWVVIbjAyQWRvUzBtNUdXWHJOZGJBM2FSenhEbm13U1VkTF9yNzJKNGhUSlA5RG96U2d5OWFoOTBDaWY1TERhbXRPdjl6MXVrVkRVRndpcGlNWnpwYjhJN2FNSmtSM1ZZUWdmdmhwdTZRQkN4djhaSVZFalZQZVJlTE"&amp;"htZ0hSX3BBUVhueG01ZnYyTnd1UFlKbXA0UEExcnZ3VmxlSk5fQ1BLMzJXd01SUFJGOThISnFGWQ?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMi1wFBVV95cUxQWW4tMTVHdjBQYm02RDJ5d1RMVUcyRXZoREdKQV9YWVVIbjAyQWRvUzBtNUdXWHJOZGJBM2FSenhEbm13U1VkTF9yNzJKNGhUSlA5RG96U2d5OWFoOTBDaWY1TERhbXRPdjl6MXVrVkRVRndpcGlNWnpwYjhJN2FNSmtSM1ZZUWdmdmhwdTZRQkN4djhaSVZFalZQZVJlTEhtZ0hSX3BBUVhueG01ZnYyTnd1UFlKbXA0UEExcnZ3VmxlSk5fQ1BLMzJXd01SUFJGOThISnFGWQ?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Inflatable Party Magic Offers Photo Booth Rentals For Holiday Events in Dallas - GlobeNewswire")</f>
+        <v>Inflatable Party Magic Offers Photo Booth Rentals For Holiday Events in Dallas - GlobeNewswire</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi3ApBVV95cUxPUEx6aGFNUWJ0RjhzbFdGMXlqVEl6U0lNN0IzOVlDMlZrTWlXTUFSZEFMdzVLcS1hRnlxa09HcG5Yb1A3OGNxUV9OdGlmNk84eWVqTGUyRHY3UEJSZFVHakczMUxXeW5XY1VvOUhjWlIxT3VuMjFNWUFzVGU2N2lCdy1wU1lFWkVwbnpYTEJQME9MS3JCRktaSTlQejlORU"&amp;"V4MHhIdjVicjlDTWxXSHhseFUtdEs2X25PdDJMX25yVl9yd1RRZ3dVbk1TY0lWWFVUanh0Zk81OERkcVBPNlE5dkpuMkJzOFExWEFydDhtM01tcUJUT0thNER0MjBtenVfWmN2TUdRWEQ1VGdiQWRiS3lod2lXS3dfT0RtemwyTlZIVkowRk5OSXhkSFotUTJvRlVCWFZxcUFhZ3hpRVF5RVJZZ0NmajR0ZUpYQTQybHFLRm9iQ3A3ekVJQ3VpW"&amp;"VdiRnM5VlFEOUV4a3lzMTZuTl9DSTltOTRvN1dVd0hCUkV1VnJ5TGxja3FuQXZrZzhqQUJCMEJBV3FQakhGMXowM3V4Z2ZOandDaFJDUFVfSU9pX2h4bjR6aXBVaGxrUjAxanVRd04teW0xT0xfVGxlbzg3T0lEOGtQN1dQMHZxTktqc3p6YnBPVDd2bTRLLUpYRzhsOWJjRTJJR080aVFwTnpVaTdjcDRkbF9RNmx0LW56WkVUa3VQSkRjZUhQ"&amp;"SU4tM2NOd0NhLWZlTHJmNHZGdG1EQVl5UDV2Z0JJbG81YmJjUy1GWUN6MV9OenI4bDFrbkhucWxXYlo0VkZaeDFUSkhMVDVzOEx4YnhJejdacUlITU1oNkFndXRpWk5xM1dfTnl0Q0tkeG1tNXg0T1JKanRNc0tSR3BVUmpPS1VYTjFKNUd2VkRJTFRTNHNoZENqV3c5T0ZTOXcwWm8xbHprc1Y2OWFQR0Z1XzZJZk14ZEQ2MkZ6V01uZXlIUWR"&amp;"pUmNFNXJNbjZaaDlWb092VEppQ2trbFBnUUJnVTY0ZklNMFBVSjFIYzVSYzlQd1dyNU00ZTNUNURnUUh3TzNKWXA0NFJFVEU4bXVvbUI3UW9JSUJnS1FIRkFFQ3RCYXVoNnBPTjhzeGVvbEVDSGFid2FpTHRBZHh6MXhLT3BQRENiQ0FZOFFKbVR5TVBfSVE4Q0ROUGxWcjh2dFJlOFN1LWxiVU5vVnlwSTA1d2VfMXJkLXVKRk9DOWRQWDd0X1"&amp;"9YaG9sWFFnRmsxajlzeFY3ak9xSE1RZ3lQSkstcVVhVWVLTW1wMFcyZnp3UnZ0cHhFLUFCMWRGeWpKcGo4cW1QQ2hsdTkwUlZoT2lKM2pGWWIweXRxSkhEUHU2ZFZEUmF6UXNFU25udnlsNUY4UmJSUFphM2U4Q3ZqU1lSOGlyc2R6amVkbERPN2paQ25XcnZ4VlVVbUlyR19HQm9xYk1zLTlqSDNhVUZ6VmtYbFRCVDU2ejNJcS1lN3BxY1cwO"&amp;"G1WeEtfejhNbWtiRWZ4YWlvaXBJNjMzLWNOaFFldDE5MmdNLU5paklDOVp2YXA2YlJtSUVPNGw5dHMwZS1Sa1VqcmVQQXBFTnBJbUlWMTN1S3BCTC1zMk1FeVFLUV9QTXhNOWlVYWd1S09pYUFrYWVWVzdSRDk3NWljTF9kTGMzOXh3S3VRVmdscTQ5N2cySDBJXzYtdExLVXc4bXJsWlJ5RXZPZ0RPbEFWdHhwWHJaLXpuYmNCWW5pcnRYc3NQ"&amp;"QXROMkRHQTVHeUxYaDkwZDJ5X21lcXZBbTVoOTFwYndEaDlVcGZ2ZGllSVh4Y1NZOGFYdDZ6c3I4TE9oNDdqWGpV?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMi3ApBVV95cUxPUEx6aGFNUWJ0RjhzbFdGMXlqVEl6U0lNN0IzOVlDMlZrTWlXTUFSZEFMdzVLcS1hRnlxa09HcG5Yb1A3OGNxUV9OdGlmNk84eWVqTGUyRHY3UEJSZFVHakczMUxXeW5XY1VvOUhjWlIxT3VuMjFNWUFzVGU2N2lCdy1wU1lFWkVwbnpYTEJQME9MS3JCRktaSTlQejlORUV4MHhIdjVicjlDTWxXSHhseFUtdEs2X25PdDJMX25yVl9yd1RRZ3dVbk1TY0lWWFVUanh0Zk81OERkcVBPNlE5dkpuMkJzOFExWEFydDhtM01tcUJUT0thNER0MjBtenVfWmN2TUdRWEQ1VGdiQWRiS3lod2lXS3dfT0RtemwyTlZIVkowRk5OSXhkSFotUTJvRlVCWFZxcUFhZ3hpRVF5RVJZZ0NmajR0ZUpYQTQybHFLRm9iQ3A3ekVJQ3VpWVdiRnM5VlFEOUV4a3lzMTZuTl9DSTltOTRvN1dVd0hCUkV1VnJ5TGxja3FuQXZrZzhqQUJCMEJBV3FQakhGMXowM3V4Z2ZOandDaFJDUFVfSU9pX2h4bjR6aXBVaGxrUjAxanVRd04teW0xT0xfVGxlbzg3T0lEOGtQN1dQMHZxTktqc3p6YnBPVDd2bTRLLUpYRzhsOWJjRTJJR080aVFwTnpVaTdjcDRkbF9RNmx0LW56WkVUa3VQSkRjZUhQSU4tM2NOd0NhLWZlTHJmNHZGdG1EQVl5UDV2Z0JJbG81YmJjUy1GWUN6MV9OenI4bDFrbkhucWxXYlo0VkZaeDFUSkhMVDVzOEx4YnhJejdacUlITU1oNkFndXRpWk5xM1dfTnl0Q0tkeG1tNXg0T1JKanRNc0tSR3BVUmpPS1VYTjFKNUd2VkRJTFRTNHNoZENqV3c5T0ZTOXcwWm8xbHprc1Y2OWFQR0Z1XzZJZk14ZEQ2MkZ6V01uZXlIUWRpUmNFNXJNbjZaaDlWb092VEppQ2trbFBnUUJnVTY0ZklNMFBVSjFIYzVSYzlQd1dyNU00ZTNUNURnUUh3TzNKWXA0NFJFVEU4bXVvbUI3UW9JSUJnS1FIRkFFQ3RCYXVoNnBPTjhzeGVvbEVDSGFid2FpTHRBZHh6MXhLT3BQRENiQ0FZOFFKbVR5TVBfSVE4Q0ROUGxWcjh2dFJlOFN1LWxiVU5vVnlwSTA1d2VfMXJkLXVKRk9DOWRQWDd0X19YaG9sWFFnRmsxajlzeFY3ak9xSE1RZ3lQSkstcVVhVWVLTW1wMFcyZnp3UnZ0cHhFLUFCMWRGeWpKcGo4cW1QQ2hsdTkwUlZoT2lKM2pGWWIweXRxSkhEUHU2ZFZEUmF6UXNFU25udnlsNUY4UmJSUFphM2U4Q3ZqU1lSOGlyc2R6amVkbERPN2paQ25XcnZ4VlVVbUlyR19HQm9xYk1zLTlqSDNhVUZ6VmtYbFRCVDU2ejNJcS1lN3BxY1cwOG1WeEtfejhNbWtiRWZ4YWlvaXBJNjMzLWNOaFFldDE5MmdNLU5paklDOVp2YXA2YlJtSUVPNGw5dHMwZS1Sa1VqcmVQQXBFTnBJbUlWMTN1S3BCTC1zMk1FeVFLUV9QTXhNOWlVYWd1S09pYUFrYWVWVzdSRDk3NWljTF9kTGMzOXh3S3VRVmdscTQ5N2cySDBJXzYtdExLVXc4bXJsWlJ5RXZPZ0RPbEFWdHhwWHJaLXpuYmNCWW5pcnRYc3NQQXROMkRHQTVHeUxYaDkwZDJ5X21lcXZBbTVoOTFwYndEaDlVcGZ2ZGllSVh4Y1NZOGFYdDZ6c3I4TE9oNDdqWGpV?oc=5</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Back to the future as Two + Quarter Studios offers photo booth for rent  Royal 
-Gazette")</f>
-        <v>Back to the future as Two + Quarter Studios offers photo booth for rent  Royal 
-Gazette</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Inflatable Party Magic Offers Photo Booth Rentals For Holiday Events in 
+Dallas  GlobeNewswire")</f>
+        <v>Inflatable Party Magic Offers Photo Booth Rentals For Holiday Events in 
+Dallas  GlobeNewswire</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 13 Jan 2025 08:00:00 GMT")</f>
-        <v>Mon, 13 Jan 2025 08:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 26 Aug 2025 07:00:00 GMT")</f>
+        <v>Tue, 26 Aug 2025 07:00:00 GMT</v>
       </c>
       <c r="B4" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The HP Sprocket Photobooth Instant is very own portable photobooth - Mashable")</f>
-        <v>The HP Sprocket Photobooth Instant is very own portable photobooth - Mashable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMia0FVX3lxTE90eUNSZnFPRDZPZ3Y5cnV1bzNKTlk4LTU0eURuOVAzNzVWejJvY2JaT1BwS3YyS25nbmJRZ2hkNFpkY3pXeG5TMEszTE43Y1BaTEtxT1hPNDNBbWF0THpRWWJZU1ZKNGtRcDI4?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMia0FVX3lxTE90eUNSZnFPRDZPZ3Y5cnV1bzNKTlk4LTU0eURuOVAzNzVWejJvY2JaT1BwS3YyS25nbmJRZ2hkNFpkY3pXeG5TMEszTE43Y1BaTEtxT1hPNDNBbWF0THpRWWJZU1ZKNGtRcDI4?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMigAJBVV95cUxNWXJNU0FNRHlydGpvM2l3N0ZWVzRmNEdCTFlfa2hJVkRqSk0ycm1ITDRjeEZDeUthOThnbTdzQ3FnUVY5blFqNzF6ejB6LUFYaUpQbmJuaHd5aU1xZk00ZXBvN0pFNVdOQ05mZ3dFM0U1Sk1WUGV0bEFzUFJLelRRZHNEQ0Z0TVBDbV9RVWdKWlp6Mjl2aHFFWGZuQ0VlMD"&amp;"ZyTm15X1VLUEEtTXNEa3RKb1AzT1l5QWlwNE11VnBHdWhaZ3laenN0QmF2T2Fmd0hjMEdZR3MtNlVSd0ZaeXRnNXVvclAzVThRRkR0WmloU1d0OGFDTzBybVdLczNScER1?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMigAJBVV95cUxNWXJNU0FNRHlydGpvM2l3N0ZWVzRmNEdCTFlfa2hJVkRqSk0ycm1ITDRjeEZDeUthOThnbTdzQ3FnUVY5blFqNzF6ejB6LUFYaUpQbmJuaHd5aU1xZk00ZXBvN0pFNVdOQ05mZ3dFM0U1Sk1WUGV0bEFzUFJLelRRZHNEQ0Z0TVBDbV9RVWdKWlp6Mjl2aHFFWGZuQ0VlMDZyTm15X1VLUEEtTXNEa3RKb1AzT1l5QWlwNE11VnBHdWhaZ3laenN0QmF2T2Fmd0hjMEdZR3MtNlVSd0ZaeXRnNXVvclAzVThRRkR0WmloU1d0OGFDTzBybVdLczNScER1?oc=5</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The HP Sprocket Photobooth Instant is very own portable photobooth  Mashable")</f>
-        <v>The HP Sprocket Photobooth Instant is very own portable photobooth  Mashable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 11 Sep 2025 07:00:00 GMT")</f>
+        <v>Thu, 11 Sep 2025 07:00:00 GMT</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Customizable Photo Booths - Trend Hunter")</f>
+        <v>Customizable Photo Booths - Trend Hunter</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiV0FVX3lxTE5ZVnJDWFNreTJJeDVoM1ZPc0dMRGQ5YUVmaGNZU0c5NjNrajBFeUV6REU5b2MtZHlXYi1vRDNCdUUxbUl4Y2dmU0dsbTYxU2Q4NWF4a00xVdIBXEFVX3lxTE1UVWU2OE16UGZYRElLemJNVmZqYkV1N09iV1J5YkV5eWtDQ2JRR1Q3QkpLZ1ZCeHdqQTd1TDQzTmc0aV9TQj"&amp;"FVV3llSmJwOW8wMnM5OWRUc3EyUXJ2?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiV0FVX3lxTE5ZVnJDWFNreTJJeDVoM1ZPc0dMRGQ5YUVmaGNZU0c5NjNrajBFeUV6REU5b2MtZHlXYi1vRDNCdUUxbUl4Y2dmU0dsbTYxU2Q4NWF4a00xVdIBXEFVX3lxTE1UVWU2OE16UGZYRElLemJNVmZqYkV1N09iV1J5YkV5eWtDQ2JRR1Q3QkpLZ1ZCeHdqQTd1TDQzTmc0aV9TQjFVV3llSmJwOW8wMnM5OWRUc3EyUXJ2?oc=5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Customizable Photo Booths  Trend Hunter")</f>
+        <v>Customizable Photo Booths  Trend Hunter</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 26 Aug 2025 21:46:00 GMT")</f>
+        <v>Tue, 26 Aug 2025 21:46:00 GMT</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi9gFBVV95cUxPUl9OWll4YUllRGNSVktidFBfaFlzMFJEYXpUMlpGSUs4VHhQWjlSc29IMkhJZWcxZi1fQmk2VnRoUXF3cV9VVTV3S00wWU5Jamxidy0zTmN3X1YyOGJEeWJIcmlKTE5XRC1OOEh4cEx1cUxCMlpQTnRZRENWVnhwVS1meHRjQWhtYlhudFhPaElrZDM4LTg1QmpwRTNVbT"&amp;"NibzZoSFA1RkNHbndqWVBiME9zeU9ISzZpWGxpRk81elVadHExSUZ6YUFNM3FnVzQzS1NhbVFqWHFUUlFOY3dzb1hUbjZkQ1g3Q0NnYnpMSmVHM3U3bEE?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMi9gFBVV95cUxPUl9OWll4YUllRGNSVktidFBfaFlzMFJEYXpUMlpGSUs4VHhQWjlSc29IMkhJZWcxZi1fQmk2VnRoUXF3cV9VVTV3S00wWU5Jamxidy0zTmN3X1YyOGJEeWJIcmlKTE5XRC1OOEh4cEx1cUxCMlpQTnRZRENWVnhwVS1meHRjQWhtYlhudFhPaElrZDM4LTg1QmpwRTNVbTNibzZoSFA1RkNHbndqWVBiME9zeU9ISzZpWGxpRk81elVadHExSUZ6YUFNM3FnVzQzS1NhbVFqWHFUUlFOY3dzb1hUbjZkQ1g3Q0NnYnpMSmVHM3U3bEE?oc=5</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 26 Aug 2025 21:46:00 GMT")</f>
+        <v>Tue, 26 Aug 2025 21:46:00 GMT</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, Story-Driven Experiences - FinancialContent</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi-AFBVV95cUxOVVp5azJxdDZ6NXIyRXdyZEF3WWVFeFFTMjdzMjYtYXRnOEc2S3RyeW8wT0t6a2RfMm1nNEl6a2FaejJyVEx3ZTdWYUp5R1AtaFc4MkgyR19LTC15NVMzMS03eWF3ZDhKdU5PellXRVBDOEVrV3JaX1R0SXBZUkRuZmlPellWVC1oWl9xcnNLU1ozVEtCTmQ2SHVJbnBfbG"&amp;"NwQnhQTUVHcWNHOW1wdmlWSjVOaG82ZnJ6Z2pkSnJpUEFBMzVJbG0yTEk1M21LVWNKRVpNUk5nZXJKUl84bzV6dGZuNkhTZ2lNaFhnWjQySXgwbjFwZjV6Mg?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMi-AFBVV95cUxOVVp5azJxdDZ6NXIyRXdyZEF3WWVFeFFTMjdzMjYtYXRnOEc2S3RyeW8wT0t6a2RfMm1nNEl6a2FaejJyVEx3ZTdWYUp5R1AtaFc4MkgyR19LTC15NVMzMS03eWF3ZDhKdU5PellXRVBDOEVrV3JaX1R0SXBZUkRuZmlPellWVC1oWl9xcnNLU1ozVEtCTmQ2SHVJbnBfbGNwQnhQTUVHcWNHOW1wdmlWSjVOaG82ZnJ6Z2pkSnJpUEFBMzVJbG0yTEk1M21LVWNKRVpNUk5nZXJKUl84bzV6dGZuNkhTZ2lNaFhnWjQySXgwbjFwZjV6Mg?oc=5</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent")</f>
+        <v>Ineffable Views Redefines Photo Booth Rental in Toronto with Authentic, 
+Story-Driven Experiences  FinancialContent</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 16 Feb 2016 08:00:00 GMT")</f>
+        <v>Tue, 16 Feb 2016 08:00:00 GMT</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wonder Jump now offers photo booth rentals - Observer and Eccentric Newspapers")</f>
+        <v>Wonder Jump now offers photo booth rentals - Observer and Eccentric Newspapers</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiswFBVV95cUxOM01UcURPM2JiLTRqeldnWWs3QWQwMnRGeU92TU5ELXFLc0xnQlBpRnV6N0lTVGt0TEZOX0RfdkV3MjNsLVRMY2kzNkl1ZlhDbjdYTnRybnFPaFA5UkdLSERWQ29FTk53aUJ1c1JkZzc3N05HWmJNRnp6RFN4NFFqMzJFSUtxMm5zelNrSjYwLU5mc0pHbDFfMkh0bnZJbk"&amp;"9PTTRqWDdBbGt0bHNxU3BKdWJVOA?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiswFBVV95cUxOM01UcURPM2JiLTRqeldnWWs3QWQwMnRGeU92TU5ELXFLc0xnQlBpRnV6N0lTVGt0TEZOX0RfdkV3MjNsLVRMY2kzNkl1ZlhDbjdYTnRybnFPaFA5UkdLSERWQ29FTk53aUJ1c1JkZzc3N05HWmJNRnp6RFN4NFFqMzJFSUtxMm5zelNrSjYwLU5mc0pHbDFfMkh0bnZJbk9PTTRqWDdBbGt0bHNxU3BKdWJVOA?oc=5</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wonder Jump now offers photo booth rentals  Observer and Eccentric 
+Newspapers")</f>
+        <v>Wonder Jump now offers photo booth rentals  Observer and Eccentric 
+Newspapers</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 01 Aug 2022 07:00:00 GMT")</f>
+        <v>Mon, 01 Aug 2022 07:00:00 GMT</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Basic Booth Brings Photo Booth Rentals to the Boca/Boynton Chamber - The Boca Raton Tribune")</f>
+        <v>Basic Booth Brings Photo Booth Rentals to the Boca/Boynton Chamber - The Boca Raton Tribune</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMivwFBVV95cUxOMkgzajBUR3RGNjMzUDE0TnAxa09xMHRfWS1mbHNPTFM4Si16UU82M1pQN0hnVFNHVzRhM3VLVHRKZUtHeWcwWTdQQXJRWGUzTjF3NkFwVTZGcjQ1a1VjNFY3R3E3R3pabXJrOEpDSlJrTDJxZF9icksyNkxBM1JvOXU3Z28zQnl4Ty1SYWpjdmdNSWJuVDAxRDd4WmF6Z0"&amp;"wwc0FodEowNi05NEJyenc2Y2NPbUhCUG1KUDA0OVBwSQ?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMivwFBVV95cUxOMkgzajBUR3RGNjMzUDE0TnAxa09xMHRfWS1mbHNPTFM4Si16UU82M1pQN0hnVFNHVzRhM3VLVHRKZUtHeWcwWTdQQXJRWGUzTjF3NkFwVTZGcjQ1a1VjNFY3R3E3R3pabXJrOEpDSlJrTDJxZF9icksyNkxBM1JvOXU3Z28zQnl4Ty1SYWpjdmdNSWJuVDAxRDd4WmF6Z0wwc0FodEowNi05NEJyenc2Y2NPbUhCUG1KUDA0OVBwSQ?oc=5</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Basic Booth Brings Photo Booth Rentals to the Boca/Boynton Chamber  The 
+Boca Raton Tribune")</f>
+        <v>Basic Booth Brings Photo Booth Rentals to the Boca/Boynton Chamber  The 
+Boca Raton Tribune</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wed, 22 Jan 2020 08:00:00 GMT")</f>
         <v>Wed, 22 Jan 2020 08:00:00 GMT</v>
       </c>
-      <c r="B5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day - Preview")</f>
-        <v>5 Photo Booths You Can Rent for Your Wedding Day - Preview</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiggFBVV95cUxOSFhQTEtaUjZUWGQydDVLTzU5MDVibjJYMWRqdWJqTnQydnhuVG4xNHFzQWxUWlNwUTJ1UERHZ3luNXJlOHZJZXBpaWd2TUt5OENvSjllb1kwc0hBMVRaM096bjFoUHU0SGFzUl91YkZ6NnVsbmRyMFZKMFZlbFNzX0pB?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiggFBVV95cUxOSFhQTEtaUjZUWGQydDVLTzU5MDVibjJYMWRqdWJqTnQydnhuVG4xNHFzQWxUWlNwUTJ1UERHZ3luNXJlOHZJZXBpaWd2TUt5OENvSjllb1kwc0hBMVRaM096bjFoUHU0SGFzUl91YkZ6NnVsbmRyMFZKMFZlbFNzX0pB?oc=5</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day  Preview")</f>
-        <v>5 Photo Booths You Can Rent for Your Wedding Day  Preview</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 03 Jan 2025 14:12:45 GMT")</f>
-        <v>Fri, 03 Jan 2025 14:12:45 GMT</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bhatta Boom Photo Booth Launches Premium Corporate Photo Booth Services in Indianapolis with Custom Brand Activations - Digital Journal")</f>
-        <v>Bhatta Boom Photo Booth Launches Premium Corporate Photo Booth Services in Indianapolis with Custom Brand Activations - Digital Journal</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiowFBVV95cUxQdTM5aUJVVVF6N2s0WG5SaTRMSVJ4SzA5RUt6WVc5bUVmT3p1QTNnMDh6a2p5VnRCSm8wbFdWWVdyN2lHb0R6MDE2Q3FPdmpTd2ZIRlZhcEpGeU12ekgyX1QxZjktUnMyVnFUbnJhaFRfM1c1RmxaWmpadTdla25QbFhQYzhpb1hOUGx2R0ljcjdEajBsZWxNTjZQVk5Jbm"&amp;"UwaVVz?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiowFBVV95cUxQdTM5aUJVVVF6N2s0WG5SaTRMSVJ4SzA5RUt6WVc5bUVmT3p1QTNnMDh6a2p5VnRCSm8wbFdWWVdyN2lHb0R6MDE2Q3FPdmpTd2ZIRlZhcEpGeU12ekgyX1QxZjktUnMyVnFUbnJhaFRfM1c1RmxaWmpadTdla25QbFhQYzhpb1hOUGx2R0ljcjdEajBsZWxNTjZQVk5JbmUwaVVz?oc=5</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bhatta Boom Photo Booth Launches Premium Corporate Photo Booth Services in 
-Indianapolis with Custom Brand Activations  Digital Journal")</f>
-        <v>Bhatta Boom Photo Booth Launches Premium Corporate Photo Booth Services in 
-Indianapolis with Custom Brand Activations  Digital Journal</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 20 Jun 2023 07:00:00 GMT")</f>
-        <v>Tue, 20 Jun 2023 07:00:00 GMT</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Life of the Party delivers glamorous 360 photo booths to events across Tampa Bay - I Love the Burg")</f>
-        <v>Life of the Party delivers glamorous 360 photo booths to events across Tampa Bay - I Love the Burg</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBKSG5EN2tCS1Y2V3NnY29Ydm0tNXRKdk5ua1VJdml3cmhNOEZMam9ZWWRScmx3dlRxeG5NRHp3Ymg1RjE3czZNMnVaa0JQXzVFazhiX3JLM2J4Q3J1QWowT1ZDaUU0NzQ?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBKSG5EN2tCS1Y2V3NnY29Ydm0tNXRKdk5ua1VJdml3cmhNOEZMam9ZWWRScmx3dlRxeG5NRHp3Ymg1RjE3czZNMnVaa0JQXzVFazhiX3JLM2J4Q3J1QWowT1ZDaUU0NzQ?oc=5</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Life of the Party delivers glamorous 360 photo booths to events across 
-Tampa Bay  I Love the Burg")</f>
-        <v>Life of the Party delivers glamorous 360 photo booths to events across 
-Tampa Bay  I Love the Burg</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 01 May 2008 07:00:00 GMT")</f>
-        <v>Thu, 01 May 2008 07:00:00 GMT</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Technology - CBC News")</f>
-        <v>Technology - CBC News</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMic0FVX3lxTFAxSThTM090d3ljMWhKWW1jMVU2eTN4RjJrME40M0RSdmVhdDM1ZXhrcHNyUno2c1BqWGY5QThLTUo5OXN5SEpkVzNrS05McXhodlpuenZMNGdYZllfd0xKU3AyM2Vzckl4U0lhNXVoamtQWUU?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMic0FVX3lxTFAxSThTM090d3ljMWhKWW1jMVU2eTN4RjJrME40M0RSdmVhdDM1ZXhrcHNyUno2c1BqWGY5QThLTUo5OXN5SEpkVzNrS05McXhodlpuenZMNGdYZllfd0xKU3AyM2Vzckl4U0lhNXVoamtQWUU?oc=5</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Technology  CBC News")</f>
-        <v>Technology  CBC News</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 21 Aug 2023 07:00:00 GMT")</f>
-        <v>Mon, 21 Aug 2023 07:00:00 GMT</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Sharone Reid - CanvasRebel Magazine")</f>
-        <v>Meet Sharone Reid - CanvasRebel Magazine</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiVEFVX3lxTE9WempvN2ZVYi12R1pvOGJyMmhBUFFKeGNERnQ0WlllZzZIN0hsX09RdTRSbW1zSy1KMUlPdklDZm1NcHZGV19mTWFnSC0tazF4MWFsZw?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiVEFVX3lxTE9WempvN2ZVYi12R1pvOGJyMmhBUFFKeGNERnQ0WlllZzZIN0hsX09RdTRSbW1zSy1KMUlPdklDZm1NcHZGV19mTWFnSC0tazF4MWFsZw?oc=5</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Sharone Reid  CanvasRebel Magazine")</f>
-        <v>Meet Sharone Reid  CanvasRebel Magazine</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 30 Nov 2020 08:00:00 GMT")</f>
-        <v>Mon, 30 Nov 2020 08:00:00 GMT</v>
-      </c>
       <c r="B10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"These Elementary School Pals Said ""I Do"" in Their Friend's Backyard - Boston magazine")</f>
-        <v>These Elementary School Pals Said "I Do" in Their Friend's Backyard - Boston magazine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day - Preview.ph")</f>
+        <v>5 Photo Booths You Can Rent for Your Wedding Day - Preview.ph</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMid0FVX3lxTE1wcFg1RWtQNUdRd0thMlJBR0gzRWNhanlkTXJmSTVOZEtJZnFnbTk3S2R0LXRmTURYU2hEQUd1MXotTnFOZmpLdURseV9lVVZPRmg2Rk5PdVZLaExCTlk2a05QbjV3X3g3QWdtMVlyeW84OF8zUm00?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMid0FVX3lxTE1wcFg1RWtQNUdRd0thMlJBR0gzRWNhanlkTXJmSTVOZEtJZnFnbTk3S2R0LXRmTURYU2hEQUd1MXotTnFOZmpLdURseV9lVVZPRmg2Rk5PdVZLaExCTlk2a05QbjV3X3g3QWdtMVlyeW84OF8zUm00?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMikgFBVV95cUxPbTctbURPbzZucS1YUlBsMkQzelYyeU5ya01Gdk9sdlRBQ0NycUY3YlUwTnlnc2xWOFhKcm8zeHlTaWxiN3dwVW11T05PZG14MU9KYkV2OG5KcUp0YkVhRC1Kbmc3Ujdqb1hSaEF5TGc5Nnl5dXE1NnVhemxTampSeFJvSkF1SXVPZFdDbjc3YWlxZw?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMikgFBVV95cUxPbTctbURPbzZucS1YUlBsMkQzelYyeU5ya01Gdk9sdlRBQ0NycUY3YlUwTnlnc2xWOFhKcm8zeHlTaWxiN3dwVW11T05PZG14MU9KYkV2OG5KcUp0YkVhRC1Kbmc3Ujdqb1hSaEF5TGc5Nnl5dXE1NnVhemxTampSeFJvSkF1SXVPZFdDbjc3YWlxZw?oc=5</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"These Elementary School Pals Said ""I Do"" in Their Friend's Backyard  Boston 
-magazine")</f>
-        <v>These Elementary School Pals Said "I Do" in Their Friend's Backyard  Boston 
-magazine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day  Preview.ph")</f>
+        <v>5 Photo Booths You Can Rent for Your Wedding Day  Preview.ph</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 11 Apr 2019 07:00:00 GMT")</f>
-        <v>Thu, 11 Apr 2019 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 12 Aug 2025 07:00:00 GMT")</f>
+        <v>Tue, 12 Aug 2025 07:00:00 GMT</v>
       </c>
       <c r="B11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"I saw the future of photo booths, and they’re weird - The Verge")</f>
-        <v>I saw the future of photo booths, and they’re weird - The Verge</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PetroGas Co SEC 10-Q Report - TradingView")</f>
+        <v>PetroGas Co SEC 10-Q Report - TradingView</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMirwFBVV95cUxQZk11ekVjblNvM1IwWmMtY19EWXhKZnJuTWVCcDVDNkVKbXJZYVliR1JiZmt5WDJGVGIxY1JTcVlqMk1ha0JPSEpoQndfNnRKbE1UV2RYVFBSUFJPUzZINWtkMEFFUzc0dTduRGRwQkUxV0ZmNFpZNnVnYUNlYjJiQkxPVVdyd1ZGYVAxaVVwNXpVOVFyeFZTUGp6UkJpa0"&amp;"Q2V2E5a2toTnB6Ml85UFJJ?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMirwFBVV95cUxQZk11ekVjblNvM1IwWmMtY19EWXhKZnJuTWVCcDVDNkVKbXJZYVliR1JiZmt5WDJGVGIxY1JTcVlqMk1ha0JPSEpoQndfNnRKbE1UV2RYVFBSUFJPUzZINWtkMEFFUzc0dTduRGRwQkUxV0ZmNFpZNnVnYUNlYjJiQkxPVVdyd1ZGYVAxaVVwNXpVOVFyeFZTUGp6UkJpa0Q2V2E5a2toTnB6Ml85UFJJ?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMikwFBVV95cUxQYjVpMHdyR3lVN1U1QVZzZldEaFlaT0RxcUtpT1A1TjFNWVppV1JCR3RxdEZudVFRbWJNZV96REZkZnFRZjZYVHAxQWh0elU3dUFzelYzZ3VkNjIycEZwOFhZM2lGdkZEa0dTY0xhQm5pRjVybzd2Nk1Wa2xNZTFZUExLVEczQzU1NjBLdFlrcDF3dEE?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMikwFBVV95cUxQYjVpMHdyR3lVN1U1QVZzZldEaFlaT0RxcUtpT1A1TjFNWVppV1JCR3RxdEZudVFRbWJNZV96REZkZnFRZjZYVHAxQWh0elU3dUFzelYzZ3VkNjIycEZwOFhZM2lGdkZEa0dTY0xhQm5pRjVybzd2Nk1Wa2xNZTFZUExLVEczQzU1NjBLdFlrcDF3dEE?oc=5</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"I saw the future of photo booths, and they’re weird  The Verge")</f>
-        <v>I saw the future of photo booths, and they’re weird  The Verge</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PetroGas Co SEC 10-Q Report  TradingView")</f>
+        <v>PetroGas Co SEC 10-Q Report  TradingView</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 19 Aug 2021 07:00:00 GMT")</f>
-        <v>Thu, 19 Aug 2021 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 15 May 2025 07:00:00 GMT")</f>
+        <v>Thu, 15 May 2025 07:00:00 GMT</v>
       </c>
       <c r="B12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Longtime business keeps capturing memories | Herald Community Newspapers - liherald.com")</f>
-        <v>Longtime business keeps capturing memories | Herald Community Newspapers - liherald.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Yaqoob Sheikh | Entrepreneur - shoutout miami")</f>
+        <v>Meet Yaqoob Sheikh | Entrepreneur - shoutout miami</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMikwFBVV95cUxPVG5zVFNFcllOWE1rSVNVdExsUzlINkNZTFRLSFU5bzVtU1h2MjNOSmpLbldFaEMwenBZcDlsekJfcjRwVkp2em13dDJXNXhDSkUzWmdJcUtqYWdFOUV0WWZqVEVGRDVnclpiY1dIOWJ5Um53OTBmaGJRc3NSa2dKMGIyYnRRNlA3SU1tVVBQd1ZKM1E?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMikwFBVV95cUxPVG5zVFNFcllOWE1rSVNVdExsUzlINkNZTFRLSFU5bzVtU1h2MjNOSmpLbldFaEMwenBZcDlsekJfcjRwVkp2em13dDJXNXhDSkUzWmdJcUtqYWdFOUV0WWZqVEVGRDVnclpiY1dIOWJ5Um53OTBmaGJRc3NSa2dKMGIyYnRRNlA3SU1tVVBQd1ZKM1E?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiakFVX3lxTE44TU9IMl9MaDRrb0ZZQUtGX0xmZnhiTzhVLWZEU1JSMkpVckZuOFB0SUx5RllKdkJYY0EyWkYtMmFUdmUzT2EtSzVndUVyVk1ZSU1tMXNwVmZ5bEgtcnFZY1BqU3ExTWxGdmc?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiakFVX3lxTE44TU9IMl9MaDRrb0ZZQUtGX0xmZnhiTzhVLWZEU1JSMkpVckZuOFB0SUx5RllKdkJYY0EyWkYtMmFUdmUzT2EtSzVndUVyVk1ZSU1tMXNwVmZ5bEgtcnFZY1BqU3ExTWxGdmc?oc=5</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Longtime business keeps capturing memories | Herald Community Newspapers  
-liherald.com")</f>
-        <v>Longtime business keeps capturing memories | Herald Community Newspapers  
-liherald.com</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Yaqoob Sheikh | Entrepreneur  shoutout miami")</f>
+        <v>Meet Yaqoob Sheikh | Entrepreneur  shoutout miami</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 09 Dec 2024 16:45:19 GMT")</f>
-        <v>Mon, 09 Dec 2024 16:45:19 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 05 Jul 2018 03:50:09 GMT")</f>
+        <v>Thu, 05 Jul 2018 03:50:09 GMT</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vancouver Photo Booth Company Expands Services to Include Custom Branding for Corporate Clients - Barchart")</f>
-        <v>Vancouver Photo Booth Company Expands Services to Include Custom Branding for Corporate Clients - Barchart</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ShutterBox Opens Photo Booth Rentals in Los Angeles &amp; Southern California - 24-7 Press Release Newswire")</f>
+        <v>ShutterBox Opens Photo Booth Rentals in Los Angeles &amp; Southern California - 24-7 Press Release Newswire</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi1wFBVV95cUxQbW9oYk5BM1VES092RUgwNnB3YTBXX2JpVHhNQXJNVGJheUZfa19FVGhFOE1oOFJIODBHVEdqZzkyU0pOU3VpUWFHem95Q3ZjaU9tNUhWSzc3QWMzTXB1LTRnazZwUjFKdlVwaWtlM3pxWUZla2dXdHB2MlN2M0ZWYTByUElaT3JfY1g0UDhKbTRRcVl3U2lzREdNNnM1bU"&amp;"l0b3c1ZDl1VlI3cl9IOTZ6ZlN2VU5nZDcycjNkUWV3MlE3RkdQMmtMSF96Tkg3M19ZdnZ2eWo1NA?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMi1wFBVV95cUxQbW9oYk5BM1VES092RUgwNnB3YTBXX2JpVHhNQXJNVGJheUZfa19FVGhFOE1oOFJIODBHVEdqZzkyU0pOU3VpUWFHem95Q3ZjaU9tNUhWSzc3QWMzTXB1LTRnazZwUjFKdlVwaWtlM3pxWUZla2dXdHB2MlN2M0ZWYTByUElaT3JfY1g0UDhKbTRRcVl3U2lzREdNNnM1bUl0b3c1ZDl1VlI3cl9IOTZ6ZlN2VU5nZDcycjNkUWV3MlE3RkdQMmtMSF96Tkg3M19ZdnZ2eWo1NA?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiwwFBVV95cUxQREpLQjFxdElib19MVWo0WUxpcE1HZURQY1lRMkhsV0ZHUzN5dUhIM1RtUGRoWnNTQXB3YlNsT3VoVWVWd3VnYmVjcXVtTHZoUkNETDFFX2ZfTXc2WEZUaXVjTmZHZnRLVklHWVBJaXRxMmZLeXhwaXNNRWx4M21KdjQ4Tm9XN2xQdlhMUHN6UllFVjZJNG1sdVVPLVdWV0"&amp;"1icEpCTUtnUG9nR2kxNnhvVGV3SzRaejNsbHdXVnhzX3gzNXM?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQREpLQjFxdElib19MVWo0WUxpcE1HZURQY1lRMkhsV0ZHUzN5dUhIM1RtUGRoWnNTQXB3YlNsT3VoVWVWd3VnYmVjcXVtTHZoUkNETDFFX2ZfTXc2WEZUaXVjTmZHZnRLVklHWVBJaXRxMmZLeXhwaXNNRWx4M21KdjQ4Tm9XN2xQdlhMUHN6UllFVjZJNG1sdVVPLVdWV01icEpCTUtnUG9nR2kxNnhvVGV3SzRaejNsbHdXVnhzX3gzNXM?oc=5</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vancouver Photo Booth Company Expands Services to Include Custom Branding 
-for Corporate Clients  Barchart")</f>
-        <v>Vancouver Photo Booth Company Expands Services to Include Custom Branding 
-for Corporate Clients  Barchart</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ShutterBox Opens Photo Booth Rentals in Los Angeles &amp; Southern California  24-7 
+Press Release Newswire")</f>
+        <v>ShutterBox Opens Photo Booth Rentals in Los Angeles &amp; Southern California  24-7 
+Press Release Newswire</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 20 May 2016 07:00:00 GMT")</f>
-        <v>Fri, 20 May 2016 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wed, 22 Jan 2025 08:00:00 GMT")</f>
+        <v>Wed, 22 Jan 2025 08:00:00 GMT</v>
       </c>
       <c r="B14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Photo Coverage: Downtown Millburn's Girls Night Out - TAPinto.net")</f>
-        <v>Photo Coverage: Downtown Millburn's Girls Night Out - TAPinto.net</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Gabriel Beeler - Bold Journey Magazine")</f>
+        <v>Meet Gabriel Beeler - Bold Journey Magazine</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMi3gFBVV95cUxQQ0ZkaElaMTlfQW0xNEtNQWJTUmQ5aG5ac2FRVVpZTVhtZW81OXBYUVp1RWpqR2g3bmM1alhrdXZYd0xGWDYxSFNZZ010V2tSZTRjTWJZVVhQLU1IZzVXZEoxX0dsSS1HRS16ejJEZlczeFNWRVF0UkY3cEFxcFliaVdjdW0tSXdQRmRXN2JFVmU3STdRczBEUXZkZi00UV"&amp;"l3ZGprN0dRVXdvSHJCWXdKdDJzRS1Sa2ZUSmpTOWViNV9IWkxyenlRTy1iSFBwUUN6WnhtUW02ZHVmdk8zV3c?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMi3gFBVV95cUxQQ0ZkaElaMTlfQW0xNEtNQWJTUmQ5aG5ac2FRVVpZTVhtZW81OXBYUVp1RWpqR2g3bmM1alhrdXZYd0xGWDYxSFNZZ010V2tSZTRjTWJZVVhQLU1IZzVXZEoxX0dsSS1HRS16ejJEZlczeFNWRVF0UkY3cEFxcFliaVdjdW0tSXdQRmRXN2JFVmU3STdRczBEUXZkZi00UVl3ZGprN0dRVXdvSHJCWXdKdDJzRS1Sa2ZUSmpTOWViNV9IWkxyenlRTy1iSFBwUUN6WnhtUW02ZHVmdk8zV3c?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiV0FVX3lxTE94d0ZpWldxa0pqQUJxMnAzWUZTbExxeUdudEJRc1oybjFrSjdXRklHRzVFV3hOUDBxeGxyODJQRmpQMHpTMmhKdk5valpjM2ptLUxmbHQzMA?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiV0FVX3lxTE94d0ZpWldxa0pqQUJxMnAzWUZTbExxeUdudEJRc1oybjFrSjdXRklHRzVFV3hOUDBxeGxyODJQRmpQMHpTMmhKdk5valpjM2ptLUxmbHQzMA?oc=5</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Photo Coverage: Downtown Millburn's Girls Night Out  TAPinto.net")</f>
-        <v>Photo Coverage: Downtown Millburn's Girls Night Out  TAPinto.net</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Gabriel Beeler  Bold Journey Magazine")</f>
+        <v>Meet Gabriel Beeler  Bold Journey Magazine</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 15 Sep 2022 21:53:59 GMT")</f>
-        <v>Thu, 15 Sep 2022 21:53:59 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wed, 03 Jul 2013 07:00:00 GMT")</f>
+        <v>Wed, 03 Jul 2013 07:00:00 GMT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Regal Reflections - Gwinnett Business Journal")</f>
-        <v>Regal Reflections - Gwinnett Business Journal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The Roomiest Photo Booth in Town - Houstonia Magazine")</f>
+        <v>The Roomiest Photo Booth in Town - Houstonia Magazine</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiY0FVX3lxTE5iVU5jRjV5Zy1Tb3E5OFI4WWc0RFl6WDR2RzlkZXdVZUVKU21uUzdiVEtCTjI3d2l4c2FqbXQtYXNMaFVpVENqU2xHdk1HZDk1aml0ZEpLWWZzZUJ0c3l5ZTRObw?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5iVU5jRjV5Zy1Tb3E5OFI4WWc0RFl6WDR2RzlkZXdVZUVKU21uUzdiVEtCTjI3d2l4c2FqbXQtYXNMaFVpVENqU2xHdk1HZDk1aml0ZEpLWWZzZUJ0c3l5ZTRObw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMihgFBVV95cUxNMjJ4NW9NZjJUQVZjQ0VtaGRxeVpPeGdIU3B1MkhWaEc1TTlKbVE3UzdlYjdUUjRIaWhXTE5aRkdmek1XXzJIZEJlcVlCcTFBVGZJdEJXLTBucDY0ZTM5NjFFQUZUSUxpX1dqa3NSbkpWVHhQTkRLN1NkV1FPTkJEUVQxeWRHQQ?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMihgFBVV95cUxNMjJ4NW9NZjJUQVZjQ0VtaGRxeVpPeGdIU3B1MkhWaEc1TTlKbVE3UzdlYjdUUjRIaWhXTE5aRkdmek1XXzJIZEJlcVlCcTFBVGZJdEJXLTBucDY0ZTM5NjFFQUZUSUxpX1dqa3NSbkpWVHhQTkRLN1NkV1FPTkJEUVQxeWRHQQ?oc=5</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Regal Reflections  Gwinnett Business Journal")</f>
-        <v>Regal Reflections  Gwinnett Business Journal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The Roomiest Photo Booth in Town  Houstonia Magazine")</f>
+        <v>The Roomiest Photo Booth in Town  Houstonia Magazine</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 23 Aug 2021 07:00:00 GMT")</f>
-        <v>Mon, 23 Aug 2021 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Thu, 01 Dec 2022 00:55:56 GMT")</f>
+        <v>Thu, 01 Dec 2022 00:55:56 GMT</v>
       </c>
       <c r="B16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Joliet IHOP Flattened By Milburn Demolition: Photo Gallery - Joliet, IL Patch")</f>
-        <v>Joliet IHOP Flattened By Milburn Demolition: Photo Gallery - Joliet, IL Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Tawny Laney - CanvasRebel Magazine")</f>
+        <v>Meet Tawny Laney - CanvasRebel Magazine</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMikgFBVV95cUxQWWQwY2lNdlVld1VnR1RVZVhVaDFYUlJDdHVzSHRQc3UwMmpQTHRiamVXeWRNMTRKNXhtN3VKcXN5UG1ZWFZ4M2doVk1fNUFEZlUwU3NKNU5ObkxOVXFZNFhTX1JvaUY0bUR5QWkyM2otMXdWU1o0ZThNNVVKYUhnczVHY0duUlNjcV9TOUowM2RDZw?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMikgFBVV95cUxQWWQwY2lNdlVld1VnR1RVZVhVaDFYUlJDdHVzSHRQc3UwMmpQTHRiamVXeWRNMTRKNXhtN3VKcXN5UG1ZWFZ4M2doVk1fNUFEZlUwU3NKNU5ObkxOVXFZNFhTX1JvaUY0bUR5QWkyM2otMXdWU1o0ZThNNVVKYUhnczVHY0duUlNjcV9TOUowM2RDZw?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiU0FVX3lxTE1SaUxRTFN3a3FJWmg4ZUstUEV3R1hVVnJRMVpZekptRlgxQUl2SW43WXJWbFpZRXNUam9NYmFENUZ4TW83NWM0NFByUnpaRUgxQnE4?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1SaUxRTFN3a3FJWmg4ZUstUEV3R1hVVnJRMVpZekptRlgxQUl2SW43WXJWbFpZRXNUam9NYmFENUZ4TW83NWM0NFByUnpaRUgxQnE4?oc=5</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Joliet IHOP Flattened By Milburn Demolition: Photo Gallery  Joliet, IL Patch")</f>
-        <v>Joliet IHOP Flattened By Milburn Demolition: Photo Gallery  Joliet, IL Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Meet Tawny Laney  CanvasRebel Magazine")</f>
+        <v>Meet Tawny Laney  CanvasRebel Magazine</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 03 Apr 2017 07:00:00 GMT")</f>
-        <v>Mon, 03 Apr 2017 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 14 Sep 2018 07:00:00 GMT")</f>
+        <v>Fri, 14 Sep 2018 07:00:00 GMT</v>
       </c>
       <c r="B17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strip Club Bouncer's Head Bashed Open on Parking Block When Pushed Down By Unruly Customer: Cops | Joliet - Patch")</f>
-        <v>Strip Club Bouncer's Head Bashed Open on Parking Block When Pushed Down By Unruly Customer: Cops | Joliet - Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Picture this - Wright State Newsroom")</f>
+        <v>Picture this - Wright State Newsroom</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiugFBVV95cUxQSHhPSGRJSFB2bGY4a1ozbk01WDJmNDJoQlRXMFlxb05GcVV5WHA3SG9PdVZDcHJlaF93QjUyLXdaZVR0ZVpjNjEtRWlocXVHMlRqd0pUSnRkSWgtWV9nT0YtZDZCT2xhYVRLYUloczRLeDYtclpiUmpvdTJHdWtsandOaFRKaUVYdWVpRFBTLXdwbC1jZ2ZxY3lINkJIZX"&amp;"cxZFlxY1Z4REF4M3NMZ283aUE0N2I5QlEwWVE?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiugFBVV95cUxQSHhPSGRJSFB2bGY4a1ozbk01WDJmNDJoQlRXMFlxb05GcVV5WHA3SG9PdVZDcHJlaF93QjUyLXdaZVR0ZVpjNjEtRWlocXVHMlRqd0pUSnRkSWgtWV9nT0YtZDZCT2xhYVRLYUloczRLeDYtclpiUmpvdTJHdWtsandOaFRKaUVYdWVpRFBTLXdwbC1jZ2ZxY3lINkJIZXcxZFlxY1Z4REF4M3NMZ283aUE0N2I5QlEwWVE?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMic0FVX3lxTFA2WTBGa0pmd01tOW1GeS1zMFh3SVhaME5kc3VfbEw4bFI2cDl1cDUzbXl5REFOa3FwYnpSLVNWX1ZrcklQYVpRX1FVd01YYURNbDJ2WkFCWXlSdXpHVnZJelhhQndjRmx2eU5tam1mT1FKMm8?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMic0FVX3lxTFA2WTBGa0pmd01tOW1GeS1zMFh3SVhaME5kc3VfbEw4bFI2cDl1cDUzbXl5REFOa3FwYnpSLVNWX1ZrcklQYVpRX1FVd01YYURNbDJ2WkFCWXlSdXpHVnZJelhhQndjRmx2eU5tam1mT1FKMm8?oc=5</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strip Club Bouncer's Head Bashed Open on Parking Block When Pushed Down By 
-Unruly Customer: Cops | Joliet  Patch")</f>
-        <v>Strip Club Bouncer's Head Bashed Open on Parking Block When Pushed Down By 
-Unruly Customer: Cops | Joliet  Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Picture this  Wright State Newsroom")</f>
+        <v>Picture this  Wright State Newsroom</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 17 Aug 2021 07:00:00 GMT")</f>
-        <v>Tue, 17 Aug 2021 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sun, 26 May 2013 07:00:00 GMT")</f>
+        <v>Sun, 26 May 2013 07:00:00 GMT</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"One Joliet Coalition Hosts Community Fun Day - Patch")</f>
-        <v>One Joliet Coalition Hosts Community Fun Day - Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The photo booth that comes to you - Leesburg Daily Commercial")</f>
+        <v>The photo booth that comes to you - Leesburg Daily Commercial</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMihAFBVV95cUxPQnVneE16T2dVRkJyUGZEaHFNSXNiTFIzQ2dDcUFESXdSMGVOU0xtTDN5YlFJeTItWHJGVWt0czZIV2E2NFo4dlRtR3RNUWZRUW1FTU8ySDNDTUdDVkZlaHRjd2NwSTNOQ2pYNDhENUh3ZW50OVMxYVJBVXlOdy1Cc0JoeVE?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMihAFBVV95cUxPQnVneE16T2dVRkJyUGZEaHFNSXNiTFIzQ2dDcUFESXdSMGVOU0xtTDN5YlFJeTItWHJGVWt0czZIV2E2NFo4dlRtR3RNUWZRUW1FTU8ySDNDTUdDVkZlaHRjd2NwSTNOQ2pYNDhENUh3ZW50OVMxYVJBVXlOdy1Cc0JoeVE?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMivAFBVV95cUxPcjNqRkpsMEZNLXphNmNFY2gyZW02V0JROTZTRGdrTnVjVFo2ZUpnSjhFazhrMm1rTnBUdTlNVUtGa3dyVEJZZGRZTXBEUjFUUGh3d2JWOS0wWkRjSjVIYVBSOTZWVnVXUGhta3ZMeE9aa29DWDRqOGN6bXBHeUtHU215cUJ3WEg3SDVmMEdyVWZiZEh2WFA2QXBHSDRSMW"&amp;"9QQ3Bja0pZOVNxVHFFczdqLTdhUmFhOWtRR1ZYZg?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMivAFBVV95cUxPcjNqRkpsMEZNLXphNmNFY2gyZW02V0JROTZTRGdrTnVjVFo2ZUpnSjhFazhrMm1rTnBUdTlNVUtGa3dyVEJZZGRZTXBEUjFUUGh3d2JWOS0wWkRjSjVIYVBSOTZWVnVXUGhta3ZMeE9aa29DWDRqOGN6bXBHeUtHU215cUJ3WEg3SDVmMEdyVWZiZEh2WFA2QXBHSDRSMW9QQ3Bja0pZOVNxVHFFczdqLTdhUmFhOWtRR1ZYZg?oc=5</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"One Joliet Coalition Hosts Community Fun Day  Patch")</f>
-        <v>One Joliet Coalition Hosts Community Fun Day  Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The photo booth that comes to you  Leesburg Daily Commercial")</f>
+        <v>The photo booth that comes to you  Leesburg Daily Commercial</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 24 Jun 2013 07:00:00 GMT")</f>
-        <v>Mon, 24 Jun 2013 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fri, 23 May 2025 07:00:00 GMT")</f>
+        <v>Fri, 23 May 2025 07:00:00 GMT</v>
       </c>
       <c r="B19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plainfield Park District Installs Cameras at Ottawa Street Pool - Patch")</f>
-        <v>Plainfield Park District Installs Cameras at Ottawa Street Pool - Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prop &amp; Pose Announces Affordable Photo Booth Rentals Across the North West - Yahoo Finance")</f>
+        <v>Prop &amp; Pose Announces Affordable Photo Booth Rentals Across the North West - Yahoo Finance</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiowFBVV95cUxQRFJKT1Z2NzBHbEdBLVVKUDcyUi1NY0NOT1F3ZWgyclFhbnNzWUZEbTZHQjdMb01GRmxrRGZSZE9feXhBWkk2SUxmQXc0Z1FSckQxb0RVc2xIWFZzZzk2UTVoanlrUW1DNGdlRmlsYkVEZEJSWWRoRW95Wng3THJuV0g0UWtnQ0Q2TE1MVEw4blVaZVNiVXRReHlEMzRCek"&amp;"lkdkFj?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiowFBVV95cUxQRFJKT1Z2NzBHbEdBLVVKUDcyUi1NY0NOT1F3ZWgyclFhbnNzWUZEbTZHQjdMb01GRmxrRGZSZE9feXhBWkk2SUxmQXc0Z1FSckQxb0RVc2xIWFZzZzk2UTVoanlrUW1DNGdlRmlsYkVEZEJSWWRoRW95Wng3THJuV0g0UWtnQ0Q2TE1MVEw4blVaZVNiVXRReHlEMzRCeklkdkFj?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiigFBVV95cUxQTktwSUw4SW05elVGc1lWRnBTMFhfaXFhYUlkZTQyU2FWWHFqWHUxNVZYVVY1YXZnaElIakNzTW9sd01tOVpWQXA5eUdncjA2cFp0NWZVd1RIVXRnRk9heFRFdU9KWmJIdjVHODYzNG9OMmMwZGtmNUI2R0QyX1VCSnYxTFprNk0wcEE?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiigFBVV95cUxQTktwSUw4SW05elVGc1lWRnBTMFhfaXFhYUlkZTQyU2FWWHFqWHUxNVZYVVY1YXZnaElIakNzTW9sd01tOVpWQXA5eUdncjA2cFp0NWZVd1RIVXRnRk9heFRFdU9KWmJIdjVHODYzNG9OMmMwZGtmNUI2R0QyX1VCSnYxTFprNk0wcEE?oc=5</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Plainfield Park District Installs Cameras at Ottawa Street Pool  Patch")</f>
-        <v>Plainfield Park District Installs Cameras at Ottawa Street Pool  Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prop &amp; Pose Announces Affordable Photo Booth Rentals Across the North West  Yahoo 
+Finance")</f>
+        <v>Prop &amp; Pose Announces Affordable Photo Booth Rentals Across the North West  Yahoo 
+Finance</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tue, 18 Jun 2019 07:00:00 GMT")</f>
-        <v>Tue, 18 Jun 2019 07:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 28 Apr 2025 07:00:00 GMT")</f>
+        <v>Mon, 28 Apr 2025 07:00:00 GMT</v>
       </c>
       <c r="B20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Amaral frames an opportunity - Royal Gazette")</f>
-        <v>Amaral frames an opportunity - Royal Gazette</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lucky Shots Elevates Event Experiences with Premier Photo Booth Rentals in Dallas - TechBullion")</f>
+        <v>Lucky Shots Elevates Event Experiences with Premier Photo Booth Rentals in Dallas - TechBullion</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMioAFBVV95cUxQdGNYMEZzU3JnZHhfYWJHMzI5WFk2UlJ2ZjBDQWhpQkRmNkxHNS1NRW1YWkhLM3RaRDU5ckdpZnVxa2NzWVdsOWJVeHBpMnRSUGJiTDNBbWlJTlRXa2IwMTdPUDM5dUpEak5BZGFMV1FiMkR3bDcxX0tQd0lCWXdyRlBzYUZWVG4waHRERVVVaXBtdTVBMldYUHg0UEh0am"&amp;"xZ?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMioAFBVV95cUxQdGNYMEZzU3JnZHhfYWJHMzI5WFk2UlJ2ZjBDQWhpQkRmNkxHNS1NRW1YWkhLM3RaRDU5ckdpZnVxa2NzWVdsOWJVeHBpMnRSUGJiTDNBbWlJTlRXa2IwMTdPUDM5dUpEak5BZGFMV1FiMkR3bDcxX0tQd0lCWXdyRlBzYUZWVG4waHRERVVVaXBtdTVBMldYUHg0UEh0amxZ?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiqgFBVV95cUxPTVczOTJ0RzlQMjZIeDlNUEJQUnFWeWdDSWUzNlUwcW9UMnl1RXl0dGNmT2lQa1ZsRjlyVVBteUh5dVZoVTlOTy1BdmFwZVRETjFPUExkekpEcHR3elJwMHJOd1ljVEVlU1dVX3lfbUhtSmp0bTdxN3E1OXN2N2xqZ3RfX3d2RTlVY25WandkV3c0VWVJZEo3V01tcy1kT1"&amp;"ZIb3pxSWpYMENfUQ?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPTVczOTJ0RzlQMjZIeDlNUEJQUnFWeWdDSWUzNlUwcW9UMnl1RXl0dGNmT2lQa1ZsRjlyVVBteUh5dVZoVTlOTy1BdmFwZVRETjFPUExkekpEcHR3elJwMHJOd1ljVEVlU1dVX3lfbUhtSmp0bTdxN3E1OXN2N2xqZ3RfX3d2RTlVY25WandkV3c0VWVJZEo3V01tcy1kT1ZIb3pxSWpYMENfUQ?oc=5</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Amaral frames an opportunity  Royal Gazette")</f>
-        <v>Amaral frames an opportunity  Royal Gazette</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lucky Shots Elevates Event Experiences with Premier Photo Booth Rentals in 
+Dallas  TechBullion")</f>
+        <v>Lucky Shots Elevates Event Experiences with Premier Photo Booth Rentals in 
+Dallas  TechBullion</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mon, 04 Mar 2019 08:00:00 GMT")</f>
-        <v>Mon, 04 Mar 2019 08:00:00 GMT</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wed, 22 Jan 2020 08:00:00 GMT")</f>
+        <v>Wed, 22 Jan 2020 08:00:00 GMT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terrible Tuesdays: Will County Jail March 5 - Joliet, IL Patch")</f>
-        <v>Terrible Tuesdays: Will County Jail March 5 - Joliet, IL Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day - Preview.ph")</f>
+        <v>5 Photo Booths You Can Rent for Your Wedding Day - Preview.ph</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMiggFBVV95cUxNN0VYZkdOQWJTTkR6NldBMEQtX0lsNUpIRVdFNHNoR2JlVGtFUTUxYy1Jdl9pa0xJQnlrcTB6MmxJb1NaaXpoRklQN284cG5NMU56ZzBIWGY3VlRMZE0tZ0hsWDlfSWhCaloyWDZmbEowckt5eXB4c2xvZVd2MEFFN19B?oc=5")</f>
-        <v>https://news.google.com/rss/articles/CBMiggFBVV95cUxNN0VYZkdOQWJTTkR6NldBMEQtX0lsNUpIRVdFNHNoR2JlVGtFUTUxYy1Jdl9pa0xJQnlrcTB6MmxJb1NaaXpoRklQN284cG5NMU56ZzBIWGY3VlRMZE0tZ0hsWDlfSWhCaloyWDZmbEowckt5eXB4c2xvZVd2MEFFN19B?oc=5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://news.google.com/rss/articles/CBMimAFBVV95cUxOVjBWcFhlYzhiWGhFVHJ1akNHVVExUUJETTZjTXo2NkpkUVVtTkFTal9VQkhqWGlDSUlOb3ZkUjVaUHZWbVhBXzcweDVINGJsN1A5Qmo0dnZPb2laaGY5Y0ZwbWdsUWgxd0xOWFJwU0ZrbDFRcDVUc1pRMzdlbWFpdU5Rc2I0bE9QX3h5ZGxRUC1UendiV0VSaA?oc=5")</f>
+        <v>https://news.google.com/rss/articles/CBMimAFBVV95cUxOVjBWcFhlYzhiWGhFVHJ1akNHVVExUUJETTZjTXo2NkpkUVVtTkFTal9VQkhqWGlDSUlOb3ZkUjVaUHZWbVhBXzcweDVINGJsN1A5Qmo0dnZPb2laaGY5Y0ZwbWdsUWgxd0xOWFJwU0ZrbDFRcDVUc1pRMzdlbWFpdU5Rc2I0bE9QX3h5ZGxRUC1UendiV0VSaA?oc=5</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terrible Tuesdays: Will County Jail March 5  Joliet, IL Patch")</f>
-        <v>Terrible Tuesdays: Will County Jail March 5  Joliet, IL Patch</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5 Photo Booths You Can Rent for Your Wedding Day  Preview.ph")</f>
+        <v>5 Photo Booths You Can Rent for Your Wedding Day  Preview.ph</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId2" ref="D4"/>
+    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink r:id="rId4" ref="D6"/>
+    <hyperlink r:id="rId5" ref="D7"/>
+    <hyperlink r:id="rId6" ref="D8"/>
+    <hyperlink r:id="rId7" ref="D9"/>
+    <hyperlink r:id="rId8" ref="D10"/>
+    <hyperlink r:id="rId9" ref="D11"/>
+    <hyperlink r:id="rId10" ref="D12"/>
+    <hyperlink r:id="rId11" ref="D13"/>
+    <hyperlink r:id="rId12" ref="D14"/>
+    <hyperlink r:id="rId13" ref="D15"/>
+    <hyperlink r:id="rId14" ref="D16"/>
+    <hyperlink r:id="rId15" ref="D17"/>
+    <hyperlink r:id="rId16" ref="D18"/>
+    <hyperlink r:id="rId17" ref="D19"/>
+    <hyperlink r:id="rId18" ref="D20"/>
+    <hyperlink r:id="rId19" ref="D21"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -17027,7 +17793,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1009</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="2">
@@ -17035,7 +17801,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1010</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3">
@@ -17043,7 +17809,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1011</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4">
@@ -17051,7 +17817,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1012</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5">
@@ -17059,7 +17825,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1013</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="6">
@@ -17067,7 +17833,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1014</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7">
@@ -17075,7 +17841,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1015</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8">
@@ -17083,7 +17849,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1016</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
